--- a/NURSARYDETAILS.xlsx
+++ b/NURSARYDETAILS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\plantation design\AA\all data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA603068-3D1A-46E9-840C-2EED00E88D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEAF245-C896-4B87-95A9-760E8F597D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="4530" windowWidth="32370" windowHeight="15080" xr2:uid="{2650D709-A5EB-4526-91C5-6858B0C127A7}"/>
+    <workbookView xWindow="1700" yWindow="5900" windowWidth="32370" windowHeight="15080" xr2:uid="{2650D709-A5EB-4526-91C5-6858B0C127A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,10 +631,10 @@
         <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
